--- a/src/data3/comparisonReport.xlsx
+++ b/src/data3/comparisonReport.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="R75" s="1" t="inlineStr">
         <is>
-          <t>nan (different currencies)</t>
+          <t>nan (different or wrong currencies)</t>
         </is>
       </c>
     </row>
@@ -20874,7 +20874,7 @@
       </c>
       <c r="R99" s="1" t="inlineStr">
         <is>
-          <t>nan (different currencies)</t>
+          <t>nan (different or wrong currencies)</t>
         </is>
       </c>
     </row>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="R110" s="1" t="inlineStr">
         <is>
-          <t>nan (different currencies)</t>
+          <t>nan (different or wrong currencies)</t>
         </is>
       </c>
     </row>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
@@ -21827,7 +21827,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Differences between Vizuals</t>
+          <t>Differences between Visuals</t>
         </is>
       </c>
     </row>
